--- a/Testing/TestCases_Registration.xlsx
+++ b/Testing/TestCases_Registration.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.city\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\upload to git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F30AB9-99DD-4B48-956B-BF099CDDA556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -725,560 +723,245 @@
     <t>TC_Registration_031</t>
   </si>
   <si>
-    <t>SRS_015</t>
-  </si>
-  <si>
-    <t>SRS_014</t>
-  </si>
-  <si>
-    <t>SRS_016</t>
-  </si>
-  <si>
-    <t>SRS_013</t>
-  </si>
-  <si>
-    <t>SRS_023</t>
-  </si>
-  <si>
-    <t>SRS_022</t>
-  </si>
-  <si>
-    <t>SRS_024</t>
-  </si>
-  <si>
-    <t>SRS_021</t>
-  </si>
-  <si>
-    <t>SRS_032</t>
-  </si>
-  <si>
-    <t>SRS_029</t>
-  </si>
-  <si>
-    <t>SRS_034</t>
-  </si>
-  <si>
     <t>SRS_031</t>
   </si>
   <si>
-    <t>SRS_033</t>
-  </si>
-  <si>
-    <t>SRS_036</t>
-  </si>
-  <si>
-    <t>SRS_044</t>
-  </si>
-  <si>
-    <t>SRS_042</t>
-  </si>
-  <si>
-    <t>SRS_049</t>
-  </si>
-  <si>
-    <t>SRS_047</t>
-  </si>
-  <si>
-    <t>SRS_051</t>
-  </si>
-  <si>
-    <t>SRS_061</t>
-  </si>
-  <si>
-    <t>SRS_057</t>
-  </si>
-  <si>
-    <t>SRS_063</t>
-  </si>
-  <si>
-    <t>SRS_067</t>
-  </si>
-  <si>
-    <t>SRS_069</t>
-  </si>
-  <si>
     <t>SRS_073</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Valid registration (all fields correct)</t>
-  </si>
-  <si>
-    <r>
-      <t>Firstname with numbers (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>123</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Firstname left blank</t>
-  </si>
-  <si>
-    <r>
-      <t>Firstname with spaces (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ze zo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Firstname &gt;8 chars (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Abdelaziz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Lastname with numbers (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>123</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Lastname left blank</t>
-  </si>
-  <si>
-    <r>
-      <t>Lastname with spaces (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>elsi si</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Email left blank</t>
-  </si>
-  <si>
-    <t>Password left blank</t>
-  </si>
-  <si>
-    <r>
-      <t>Password &lt;8 chars (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abc@12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Password ≠ Confirm Password</t>
-  </si>
-  <si>
-    <r>
-      <t>Age with chars (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1c7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Address &gt;30 chars</t>
-  </si>
-  <si>
-    <t>Allowed per SRS</t>
-  </si>
-  <si>
-    <t>SRS_074</t>
-  </si>
-  <si>
     <t>TC_Registration_032</t>
   </si>
   <si>
+    <t>SRS_015,SRS_018</t>
+  </si>
+  <si>
+    <t>SRS_014.SRS_017</t>
+  </si>
+  <si>
+    <t>SRS_016,SRS_019</t>
+  </si>
+  <si>
+    <t>SRS_023, SRS_026</t>
+  </si>
+  <si>
+    <t>SRS_013, SRS_020</t>
+  </si>
+  <si>
+    <t>SRS_022, SRS_025</t>
+  </si>
+  <si>
+    <t>SRS_024, SRS_027</t>
+  </si>
+  <si>
+    <t>SRS_021, SRS_028, SRS_024, SRS_027</t>
+  </si>
+  <si>
+    <t>SRS_032, SRS_037</t>
+  </si>
+  <si>
+    <t>SRS_029, SRS_030, SRS_035</t>
+  </si>
+  <si>
+    <t>SRS_034, SRS_038</t>
+  </si>
+  <si>
+    <t>SRS_033, SRS_039</t>
+  </si>
+  <si>
+    <t>SRS_036, SRS_029</t>
+  </si>
+  <si>
+    <t>SRS_042, SRS_043</t>
+  </si>
+  <si>
+    <t>SRS_049, SRS_050</t>
+  </si>
+  <si>
+    <t>SRS_047, SRS_048</t>
+  </si>
+  <si>
+    <t>SRS_051, SRS_052</t>
+  </si>
+  <si>
+    <t>SRS_057, SRS_058</t>
+  </si>
+  <si>
+    <t>SRS_057, SRS_058, SRS_059</t>
+  </si>
+  <si>
+    <t>SRS_069, SRS_070</t>
+  </si>
+  <si>
+    <t>SRS_074,SRS_073</t>
+  </si>
+  <si>
+    <t>SRS_063, SRS_064</t>
+  </si>
+  <si>
+    <t>SRS_067, SRS_068</t>
+  </si>
+  <si>
+    <t>SRS_044, SRS_045, SRS_46</t>
+  </si>
+  <si>
+    <t>SRS_061, SRS_060, SRS_055, SRS_056,
+  SRS_62</t>
+  </si>
+  <si>
+    <t>SRS_061, SRS_055, SRS_056, SRS_62</t>
+  </si>
+  <si>
     <t>TC_Registration_033</t>
   </si>
   <si>
-    <t>Success (no SRS violation)</t>
-  </si>
-  <si>
-    <t>Error: "Invalid Input"</t>
-  </si>
-  <si>
-    <t>Lastname &gt;8 chars (redundant)</t>
-  </si>
-  <si>
-    <t>Valid email format</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Email with spaces</t>
-  </si>
-  <si>
-    <r>
-      <t>Email name = numbers only (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>123@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Email with invalid char (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Email missing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-  </si>
-  <si>
-    <t>Duplicate of TC_015</t>
-  </si>
-  <si>
-    <t>Password with spaces</t>
-  </si>
-  <si>
-    <t>Password &gt;20 chars</t>
-  </si>
-  <si>
-    <t>Error: "Password doesn’t match"</t>
-  </si>
-  <si>
-    <t>Phone number with spaces</t>
-  </si>
-  <si>
-    <r>
-      <t>Phone number with char (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Phone number with symbol (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Phone number &gt;12 digits</t>
-  </si>
-  <si>
-    <t>Phone number &lt;11 digits</t>
-  </si>
-  <si>
-    <r>
-      <t>Address with symbols (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Address with numbers (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7 Helwan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Age &lt;19 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Age with symbol (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1%7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Age with spaces (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"1 7"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>TC_Registration_034</t>
+  </si>
+  <si>
+    <t>TC_Registration_035</t>
+  </si>
+  <si>
+    <t>Create new user account with
+invalid data (valid firstname, valid lastname,
+valid email, valid password, empty confirmation password, valid phone number
+valid age, valid address)</t>
+  </si>
+  <si>
+    <t>Firstname: zezo
+Lastname: Elsisi
+Email: AbdelazizElsisi@gmail.com
+password: abc@1234567
+confirmation password: abc@1234567
+Phone number : 201111910847
+Age: 24
+Address:  Helwan Cairo Egypt</t>
+  </si>
+  <si>
+    <t>1. Open registration page
+2. Enter valid firstname
+3. Enter valid lastname
+4. Enter valid Email
+5. Enter valid Password
+6. keep Confirmation password empty
+7. Enter valid phone number
+8. Enter valid Age
+9. Enter valid Address</t>
+  </si>
+  <si>
+    <t>Firstname: zezo
+Lastname: Elsisi
+Email: AbdelazizElsisi@gmail.com
+password: abc@1234567
+confirmation password: 
+Phone number : 201111910847
+Age: 24
+Address:  Helwan Cairo Egypt</t>
+  </si>
+  <si>
+    <t>1. Open registration page
+2. Enter valid firstname
+3. Enter valid lastname
+4. Enter valid Email
+5. Enter valid Password
+6. Enter valid Confirmation password 
+7. Enter valid phone number
+8. Keep Age empty
+9. Enter valid Address</t>
+  </si>
+  <si>
+    <t>Firstname: zezo
+Lastname: Elsisi
+Email: AbdelazizElsisi@gmail.com
+password: abc@1234567
+confirmation password: abc@1234567
+Phone number : 201111910847
+Age:
+Address:  Helwan Cairo Egypt</t>
+  </si>
+  <si>
+    <t>Create new user account with
+invalid data (valid firstname, valid lastname,
+valid email, valid password, valid confirmation password, valid phone number
+empty age, valid address)</t>
+  </si>
+  <si>
+    <t>TC_Registration_036</t>
+  </si>
+  <si>
+    <t>Create new user account with
+invalid data (valid firstname, valid lastname,
+valid email, valid password, valid confirmation password, valid phone number
+valid age, empty address)</t>
+  </si>
+  <si>
+    <t>1. Open registration page
+2. Enter valid firstname
+3. Enter valid lastname
+4. Enter valid Email
+5. Enter valid Password
+6. Enter valid Confirmation password 
+7. Enter valid phone number
+8. Enter valid Age 
+9. Keep Address Empty</t>
+  </si>
+  <si>
+    <t>Firstname: zezo
+Lastname: Elsisi
+Email: AbdelazizElsisi@gmail.com
+password: abc@1234567
+confirmation password: abc@1234567
+Phone number : 201111910847
+Age: 24
+Address:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- User should open the website 
+from the PC
+2-Car purchasing registration page
+must be accessible.
+3-Chrome version 27
+4- email AbdelazizElsisi@gmail.com registered before </t>
+  </si>
+  <si>
+    <t>Create new user account with
+valid data (valid firstname, valid lastname,
+valid email, valid password, valid confirmation password, valid phone number
+valid age, valid address)
+but email registered before</t>
+  </si>
+  <si>
+    <t>1. Open registration page
+2. Enter valid firstname
+3. Enter valid lastname
+4. Enter valid Email that is already registered
+5. Enter valid Password
+6. Enter valid Confirmation password
+7. Enter valid phone number
+8. Enter valid Age
+9. Enter valid Address</t>
+  </si>
+  <si>
+    <t>Error message displays
+"Email already registered"</t>
+  </si>
+  <si>
+    <t>SRS_040, SRS_041</t>
+  </si>
+  <si>
+    <t>SRS_071, SRS_072</t>
+  </si>
+  <si>
+    <t>SRS_065,SRS_066</t>
+  </si>
+  <si>
+    <t>SRS_053,SRS_054</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,24 +991,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1452,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1469,26 +1139,104 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1785,30 +1533,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="58.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1836,11 +1584,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1865,11 +1613,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1894,11 +1642,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1923,11 +1671,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1952,11 +1700,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1981,11 +1729,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2010,11 +1758,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2039,11 +1787,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2068,11 +1816,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2097,11 +1845,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2126,11 +1874,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2155,11 +1903,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2184,11 +1932,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2213,11 +1961,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2242,11 +1990,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2271,11 +2019,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2300,11 +2048,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2329,11 +2077,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2358,11 +2106,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2387,11 +2135,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2416,11 +2164,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2445,11 +2193,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2474,11 +2222,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2503,11 +2251,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2532,11 +2280,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2561,11 +2309,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2590,11 +2338,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2619,11 +2367,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="8" t="s">
+    <row r="31" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2648,11 +2396,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2677,11 +2425,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="8" t="s">
+    <row r="33" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2706,11 +2454,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2735,12 +2483,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>151</v>
+    <row r="35" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>73</v>
@@ -2761,12 +2509,172 @@
         <v>8</v>
       </c>
       <c r="I35" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="184.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I4:I35">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -2778,674 +2686,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I35" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I39">
       <formula1>"Passed,Failed,Pending"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D292646-AA29-4319-BDD4-E6696FF0F8C2}">
-  <dimension ref="B4:J68"/>
-  <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36:H68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
-    <col min="7" max="7" width="60.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="4:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="4:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="36" spans="4:10" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="G36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="4:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="G37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="4:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="4:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="G39" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="4:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="G40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="4:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="G41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="4:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="4:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="G43" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="4:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="G44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="4:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="4:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="G46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="4:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G47" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="4:10" ht="99" x14ac:dyDescent="0.25">
-      <c r="G48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G49" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G50" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G51" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G52" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="G53" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G54" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G55" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10" ht="99" x14ac:dyDescent="0.25">
-      <c r="G56" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G57" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="G58" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="G59" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G60" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G61" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G62" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G63" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="G64" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G65" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G66" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G67" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="G68" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Testing/TestCases_Registration.xlsx
+++ b/Testing/TestCases_Registration.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\upload to git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing&amp;QA_ITI_45\QA\Car-Purchasing-main_Release04\Anas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A84D9-4543-42F2-A55A-B8626363AF94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="142">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +49,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -124,17 +122,6 @@
     <t>TC_Registration_005</t>
   </si>
   <si>
-    <t>1. Open registration page
-2. Enter invalid firstname (Exceed 8 characters)
-3. Enter valid lastname
-4. Enter valid Email
-5. Enter valid Password
-6. Enter valid Confirmation password
-7. Enter valid phone number
-8. Enter valid Age
-9. Enter valid Address</t>
-  </si>
-  <si>
     <t>TC_Registration_006</t>
   </si>
   <si>
@@ -233,17 +220,6 @@
     <t>1. Open registration page
 2. Enter valid firstname 
 3. Enter valid lastname
-4. Enter valid Email
-5. Enter valid Password
-6. Enter valid Confirmation password
-7. Enter valid phone number
-8. Enter valid Age
-9. Enter valid Address</t>
-  </si>
-  <si>
-    <t>1. Open registration page
-2. Enter valid firstname 
-3. Enter valid lastname
 4.Enter invalid Email (spaces)
 5. Enter valid Password
 6. Enter valid Confirmation password
@@ -529,16 +505,6 @@
   <si>
     <t>Firstname: zezo
 Lastname: elsisi
-Email: Abdelazizelsisi123@gmail.com
-password: abc@1234567
-confirmation password: abc@1234567
-Phone number : 201111910847
-Age: 24
-Address:  Helwan Cairo Egypt</t>
-  </si>
-  <si>
-    <t>Firstname: zezo
-Lastname: elsisi
 Email: Abdelaziz elsisi@gmail.com
 password: abc@1234567
 confirmation password: abc@1234567
@@ -723,101 +689,13 @@
     <t>TC_Registration_031</t>
   </si>
   <si>
-    <t>SRS_031</t>
-  </si>
-  <si>
-    <t>SRS_073</t>
-  </si>
-  <si>
     <t>TC_Registration_032</t>
   </si>
   <si>
-    <t>SRS_015,SRS_018</t>
-  </si>
-  <si>
-    <t>SRS_014.SRS_017</t>
-  </si>
-  <si>
-    <t>SRS_016,SRS_019</t>
-  </si>
-  <si>
-    <t>SRS_023, SRS_026</t>
-  </si>
-  <si>
-    <t>SRS_013, SRS_020</t>
-  </si>
-  <si>
-    <t>SRS_022, SRS_025</t>
-  </si>
-  <si>
-    <t>SRS_024, SRS_027</t>
-  </si>
-  <si>
-    <t>SRS_021, SRS_028, SRS_024, SRS_027</t>
-  </si>
-  <si>
-    <t>SRS_032, SRS_037</t>
-  </si>
-  <si>
-    <t>SRS_029, SRS_030, SRS_035</t>
-  </si>
-  <si>
-    <t>SRS_034, SRS_038</t>
-  </si>
-  <si>
-    <t>SRS_033, SRS_039</t>
-  </si>
-  <si>
-    <t>SRS_036, SRS_029</t>
-  </si>
-  <si>
-    <t>SRS_042, SRS_043</t>
-  </si>
-  <si>
-    <t>SRS_049, SRS_050</t>
-  </si>
-  <si>
-    <t>SRS_047, SRS_048</t>
-  </si>
-  <si>
-    <t>SRS_051, SRS_052</t>
-  </si>
-  <si>
-    <t>SRS_057, SRS_058</t>
-  </si>
-  <si>
-    <t>SRS_057, SRS_058, SRS_059</t>
-  </si>
-  <si>
-    <t>SRS_069, SRS_070</t>
-  </si>
-  <si>
-    <t>SRS_074,SRS_073</t>
-  </si>
-  <si>
-    <t>SRS_063, SRS_064</t>
-  </si>
-  <si>
-    <t>SRS_067, SRS_068</t>
-  </si>
-  <si>
-    <t>SRS_044, SRS_045, SRS_46</t>
-  </si>
-  <si>
-    <t>SRS_061, SRS_060, SRS_055, SRS_056,
-  SRS_62</t>
-  </si>
-  <si>
-    <t>SRS_061, SRS_055, SRS_056, SRS_62</t>
-  </si>
-  <si>
     <t>TC_Registration_033</t>
   </si>
   <si>
     <t>TC_Registration_034</t>
-  </si>
-  <si>
-    <t>TC_Registration_035</t>
   </si>
   <si>
     <t>Create new user account with
@@ -884,9 +762,6 @@
 empty age, valid address)</t>
   </si>
   <si>
-    <t>TC_Registration_036</t>
-  </si>
-  <si>
     <t>Create new user account with
 invalid data (valid firstname, valid lastname,
 valid email, valid password, valid confirmation password, valid phone number
@@ -945,23 +820,125 @@
 "Email already registered"</t>
   </si>
   <si>
-    <t>SRS_040, SRS_041</t>
-  </si>
-  <si>
-    <t>SRS_071, SRS_072</t>
-  </si>
-  <si>
-    <t>SRS_065,SRS_066</t>
-  </si>
-  <si>
-    <t>SRS_053,SRS_054</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Faild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>SRS_014,SRS_015
+,SRS_016,
+SRS_017,SRS_018,
+SRS_019,SRS_020, SRS_021</t>
+  </si>
+  <si>
+    <t>SRS_022,
+SRS_023, SRS_024, 
+SRS_025, SRS_026
+SRS_027, SRS_028, 
+SRS_029</t>
+  </si>
+  <si>
+    <t>SRS_030, SRS_031,
+SRS_032, SRS_033,
+SRS_034, SRS_035,
+SRS_036, SRS_037,
+SRS_038, SRS_039,
+SRS_040, SRS_041,
+SRS_042</t>
+  </si>
+  <si>
+    <t>SRS_043, SRS_044,
+ SRS_45,SRS_046, 
+SRS_047, SRS_48,
+SRS_049, SRS_050,
+ SRS_51</t>
+  </si>
+  <si>
+    <t>SRS_052, SRS_053
+SRS_054, SRS_055</t>
+  </si>
+  <si>
+    <t>SRS_056, SRS_057,
+ SRS_058, SRS_059,
+  SRS_60,SRS_061,
+SRS_062, SRS_063.</t>
+  </si>
+  <si>
+    <t>SRS_070, SRS_071,
+SRS_072, SRS_073,
+SRS_074, SRS_075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS_064, SRS_065,
+SRS_066, SRS_067,
+SRS_068, SRS_069
+</t>
+  </si>
+  <si>
+    <t>SRS_066,SRS_067,
+SRS_068,SRS_069,
+SRS_070,SRS_071,
+SRS_072,SRS_073,</t>
+  </si>
+  <si>
+    <t>SRS_041, SRS_042</t>
+  </si>
+  <si>
+    <t>faild</t>
+  </si>
+  <si>
+    <t>no message Appears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open registration page
+2. Enter invalid firstname (Exceed 8 characters)
+3. Enter valid lastname
+4. Enter valid Email
+5. Enter valid Password
+6. Enter valid Confirmation password
+7. Enter valid phone number
+8. Enter valid Age
+9. Enter valid Address
+10. press </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open registration page
+2. Enter valid firstname 
+3. Enter valid lastname
+4. Enter valid Email
+5. Enter valid Password
+6. Enter valid Confirmation password
+7. Enter valid phone number
+8. Enter valid Age
+9. Enter valid Address
+10.Press on Regestration </t>
+  </si>
+  <si>
+    <t>Firstname: Anas
+Lastname: Amin
+Email: Anas@gmail.com
+password: abc@1234567
+confirmation password: abc@1234567
+Phone number : 201111910847
+Age: 24
+Address:  Helwan Cairo Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Error message appears </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faild to signup  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,10 +949,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Montserrat"/>
     </font>
     <font>
@@ -997,8 +970,60 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,8 +1048,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1118,104 +1161,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1533,31 +1642,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="133.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="58.5546875" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.88671875" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="50.08984375" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" customWidth="1"/>
+    <col min="5" max="5" width="35.08984375" customWidth="1"/>
+    <col min="6" max="6" width="33.90625" customWidth="1"/>
+    <col min="7" max="7" width="33.36328125" customWidth="1"/>
+    <col min="8" max="8" width="34.7265625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="20.7265625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="56.36328125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
+    <row r="1" spans="1:13" ht="10.5" customHeight="1">
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" thickBot="1">
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1577,1119 +1691,996 @@
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
+      <c r="J3" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A4" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A8" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="11" customFormat="1" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A19" s="23"/>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A20" s="24"/>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A27" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A28" s="23"/>
+      <c r="B28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A30" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A31" s="23"/>
+      <c r="B31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A32" s="23"/>
+      <c r="B32" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>79</v>
+        <v>15</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A33" s="24"/>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A34" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A35" s="23"/>
+      <c r="B35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="C35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A36" s="24"/>
+      <c r="B36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="133.5" customHeight="1" thickBot="1">
+      <c r="A37" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>139</v>
+      <c r="B37" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="184.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>8</v>
+        <v>121</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="I4:I35">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+  <mergeCells count="8">
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A26"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="I4:I36">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I39">
-      <formula1>"Passed,Failed,Pending"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>